--- a/SonarLysaFX/MEP mars 2018.xlsx
+++ b/SonarLysaFX/MEP mars 2018.xlsx
@@ -1004,7 +1004,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1021,6 +1021,21 @@
         <fgColor indexed="42"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1034,303 +1049,779 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="296">
+  <cellXfs count="772">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="true" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="14" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1640,11 +2131,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="24.42578125" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="29.42578125" collapsed="false"/>
-    <col min="9" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="false"/>
-    <col min="12" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1768,210 +2259,212 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="296">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="297">
         <v>276716</v>
       </c>
-      <c r="C4" t="s" s="4">
+      <c r="C4" s="298" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s" s="5">
+      <c r="D4" s="299" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s" s="6">
+      <c r="E4" s="300" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s" s="7">
+      <c r="F4" s="301" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="302">
         <v>6</v>
       </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10">
+      <c r="H4" s="303">
+        <v>0</v>
+      </c>
+      <c r="I4" s="304">
         <v>42997</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="305">
         <v>42997</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13">
+      <c r="K4" s="306"/>
+      <c r="L4" s="307">
         <v>43075</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="308">
         <v>43087</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="309">
         <v>43171</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="310">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="311">
         <v>277994</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="312">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="313">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="314">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="315">
         <v>21</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="316">
         <v>2</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="H5" s="317">
+        <v>0</v>
+      </c>
+      <c r="I5" s="318">
         <v>42996</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="319">
         <v>42996</v>
       </c>
-      <c r="L5" s="1">
+      <c r="K5" s="320"/>
+      <c r="L5" s="321">
         <v>43137</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="322">
         <v>43145</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="323">
         <v>43173</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="324">
         <v>4</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="325">
         <v>278515</v>
       </c>
-      <c r="C6" t="s" s="18">
+      <c r="C6" s="326" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s" s="19">
+      <c r="D6" s="327" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s" s="20">
+      <c r="E6" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s" s="21">
+      <c r="F6" s="329" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="330">
         <v>9</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="331">
         <v>2</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="332">
         <v>42998</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="333">
         <v>43052</v>
       </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="27">
+      <c r="K6" s="334"/>
+      <c r="L6" s="335">
         <v>42998</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="336">
         <v>43033</v>
       </c>
-      <c r="N6" s="29">
+      <c r="N6" s="337">
         <v>43173</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+      <c r="A7" s="338">
         <v>5</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="339">
         <v>279370</v>
       </c>
-      <c r="C7" t="s" s="32">
+      <c r="C7" s="340" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s" s="33">
+      <c r="D7" s="341" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s" s="34">
+      <c r="E7" s="342" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s" s="35">
+      <c r="F7" s="343" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="344">
         <v>6</v>
       </c>
-      <c r="H7" s="37">
-        <v>0</v>
-      </c>
-      <c r="I7" s="38">
+      <c r="H7" s="345">
+        <v>0</v>
+      </c>
+      <c r="I7" s="346">
         <v>43061</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="347">
         <v>43061</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="41">
+      <c r="K7" s="348"/>
+      <c r="L7" s="349">
         <v>43075</v>
       </c>
-      <c r="M7" s="42">
+      <c r="M7" s="350">
         <v>43087</v>
       </c>
-      <c r="N7" s="43">
+      <c r="N7" s="351">
         <v>43171</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="352">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="353">
         <v>282422</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="354">
         <v>32</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="355">
         <v>33</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="356">
         <v>34</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="357">
         <v>21</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="358">
         <v>1</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="H8" s="359">
+        <v>0</v>
+      </c>
+      <c r="I8" s="360">
         <v>43017</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="361">
         <v>43017</v>
       </c>
-      <c r="L8" s="1">
+      <c r="K8" s="362"/>
+      <c r="L8" s="363">
         <v>43046</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="364">
         <v>43074</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="365">
         <v>43160</v>
       </c>
     </row>
@@ -2128,128 +2621,128 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="44">
+      <c r="A13" s="366">
         <v>11</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="367">
         <v>291505</v>
       </c>
-      <c r="C13" t="s" s="46">
+      <c r="C13" s="368" t="s">
         <v>49</v>
       </c>
-      <c r="D13" t="s" s="47">
+      <c r="D13" s="369" t="s">
         <v>50</v>
       </c>
-      <c r="E13" t="s" s="48">
+      <c r="E13" s="370" t="s">
         <v>51</v>
       </c>
-      <c r="F13" t="s" s="49">
+      <c r="F13" s="371" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="50">
+      <c r="G13" s="372">
         <v>16</v>
       </c>
-      <c r="H13" s="51">
-        <v>0</v>
-      </c>
-      <c r="I13" s="52">
+      <c r="H13" s="373">
+        <v>0</v>
+      </c>
+      <c r="I13" s="374">
         <v>43062</v>
       </c>
-      <c r="J13" s="53">
+      <c r="J13" s="375">
         <v>43117</v>
       </c>
-      <c r="K13" s="54"/>
-      <c r="L13" s="55">
+      <c r="K13" s="376"/>
+      <c r="L13" s="377">
         <v>43133</v>
       </c>
-      <c r="M13" s="56">
+      <c r="M13" s="378">
         <v>43133</v>
       </c>
-      <c r="N13" s="57">
+      <c r="N13" s="379">
         <v>43168</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="58">
+      <c r="A14" s="380">
         <v>12</v>
       </c>
-      <c r="B14" s="59">
+      <c r="B14" s="381">
         <v>292978</v>
       </c>
-      <c r="C14" t="s" s="60">
+      <c r="C14" s="382" t="s">
         <v>53</v>
       </c>
-      <c r="D14" t="s" s="61">
+      <c r="D14" s="383" t="s">
         <v>54</v>
       </c>
-      <c r="E14" t="s" s="62">
+      <c r="E14" s="384" t="s">
         <v>24</v>
       </c>
-      <c r="F14" t="s" s="63">
+      <c r="F14" s="385" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="64">
+      <c r="G14" s="386">
         <v>10</v>
       </c>
-      <c r="H14" s="65">
-        <v>0</v>
-      </c>
-      <c r="I14" s="66">
+      <c r="H14" s="387">
+        <v>0</v>
+      </c>
+      <c r="I14" s="388">
         <v>43069</v>
       </c>
-      <c r="J14" s="67">
+      <c r="J14" s="389">
         <v>43069</v>
       </c>
-      <c r="K14" s="68"/>
-      <c r="L14" s="69">
+      <c r="K14" s="390"/>
+      <c r="L14" s="391">
         <v>43084</v>
       </c>
-      <c r="M14" s="70">
+      <c r="M14" s="392">
         <v>43084</v>
       </c>
-      <c r="N14" s="71">
+      <c r="N14" s="393">
         <v>43168</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="72">
+      <c r="A15" s="394">
         <v>13</v>
       </c>
-      <c r="B15" s="73">
+      <c r="B15" s="395">
         <v>294256</v>
       </c>
-      <c r="C15" t="s" s="74">
+      <c r="C15" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="D15" t="s" s="75">
+      <c r="D15" s="397" t="s">
         <v>56</v>
       </c>
-      <c r="E15" t="s" s="76">
+      <c r="E15" s="398" t="s">
         <v>57</v>
       </c>
-      <c r="F15" t="s" s="77">
+      <c r="F15" s="399" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="78">
+      <c r="G15" s="400">
         <v>11</v>
       </c>
-      <c r="H15" s="79">
+      <c r="H15" s="401">
         <v>2</v>
       </c>
-      <c r="I15" s="80">
+      <c r="I15" s="402">
         <v>43122</v>
       </c>
-      <c r="J15" s="81">
+      <c r="J15" s="403">
         <v>43122</v>
       </c>
-      <c r="K15" s="82"/>
-      <c r="L15" s="83">
+      <c r="K15" s="404"/>
+      <c r="L15" s="405">
         <v>43145</v>
       </c>
-      <c r="M15" s="84">
+      <c r="M15" s="406">
         <v>43159</v>
       </c>
-      <c r="N15" s="85">
+      <c r="N15" s="407">
         <v>43161</v>
       </c>
     </row>
@@ -2292,84 +2785,84 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="86">
+      <c r="A17" s="408">
         <v>15</v>
       </c>
-      <c r="B17" s="87">
+      <c r="B17" s="409">
         <v>295514</v>
       </c>
-      <c r="C17" t="s" s="88">
+      <c r="C17" s="410" t="s">
         <v>62</v>
       </c>
-      <c r="D17" t="s" s="89">
+      <c r="D17" s="411" t="s">
         <v>63</v>
       </c>
-      <c r="E17" t="s" s="90">
+      <c r="E17" s="412" t="s">
         <v>64</v>
       </c>
-      <c r="F17" t="s" s="91">
+      <c r="F17" s="413" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="92">
+      <c r="G17" s="414">
         <v>83</v>
       </c>
-      <c r="H17" s="93">
+      <c r="H17" s="415">
         <v>2</v>
       </c>
-      <c r="I17" s="94">
+      <c r="I17" s="416">
         <v>43112</v>
       </c>
-      <c r="J17" s="95">
+      <c r="J17" s="417">
         <v>43147</v>
       </c>
-      <c r="K17" s="96"/>
-      <c r="L17" s="97">
+      <c r="K17" s="418"/>
+      <c r="L17" s="419">
         <v>43124</v>
       </c>
-      <c r="M17" s="98"/>
-      <c r="N17" s="99">
+      <c r="M17" s="420"/>
+      <c r="N17" s="421">
         <v>43160</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="100">
+      <c r="A18" s="422">
         <v>16</v>
       </c>
-      <c r="B18" s="101">
+      <c r="B18" s="423">
         <v>296266</v>
       </c>
-      <c r="C18" t="s" s="102">
+      <c r="C18" s="424" t="s">
         <v>66</v>
       </c>
-      <c r="D18" t="s" s="103">
+      <c r="D18" s="425" t="s">
         <v>67</v>
       </c>
-      <c r="E18" t="s" s="104">
+      <c r="E18" s="426" t="s">
         <v>68</v>
       </c>
-      <c r="F18" t="s" s="105">
+      <c r="F18" s="427" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="106">
+      <c r="G18" s="428">
         <v>34</v>
       </c>
-      <c r="H18" s="107">
-        <v>0</v>
-      </c>
-      <c r="I18" s="108">
+      <c r="H18" s="429">
+        <v>0</v>
+      </c>
+      <c r="I18" s="430">
         <v>43091</v>
       </c>
-      <c r="J18" s="109">
+      <c r="J18" s="431">
         <v>43091</v>
       </c>
-      <c r="K18" s="110"/>
-      <c r="L18" s="111">
+      <c r="K18" s="432"/>
+      <c r="L18" s="433">
         <v>43111</v>
       </c>
-      <c r="M18" s="112">
+      <c r="M18" s="434">
         <v>43131</v>
       </c>
-      <c r="N18" s="113">
+      <c r="N18" s="435">
         <v>43167</v>
       </c>
     </row>
@@ -2438,44 +2931,44 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="114">
+      <c r="A21" s="436">
         <v>19</v>
       </c>
-      <c r="B21" s="115">
+      <c r="B21" s="437">
         <v>299490</v>
       </c>
-      <c r="C21" t="s" s="116">
+      <c r="C21" s="438" t="s">
         <v>77</v>
       </c>
-      <c r="D21" t="s" s="117">
+      <c r="D21" s="439" t="s">
         <v>78</v>
       </c>
-      <c r="E21" t="s" s="118">
+      <c r="E21" s="440" t="s">
         <v>79</v>
       </c>
-      <c r="F21" t="s" s="119">
+      <c r="F21" s="441" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="120">
+      <c r="G21" s="442">
         <v>7</v>
       </c>
-      <c r="H21" s="121">
-        <v>0</v>
-      </c>
-      <c r="I21" s="122">
+      <c r="H21" s="443">
+        <v>0</v>
+      </c>
+      <c r="I21" s="444">
         <v>43109</v>
       </c>
-      <c r="J21" s="123">
+      <c r="J21" s="445">
         <v>43109</v>
       </c>
-      <c r="K21" s="124"/>
-      <c r="L21" s="125">
+      <c r="K21" s="446"/>
+      <c r="L21" s="447">
         <v>43146</v>
       </c>
-      <c r="M21" s="126">
+      <c r="M21" s="448">
         <v>43173</v>
       </c>
-      <c r="N21" s="127">
+      <c r="N21" s="449">
         <v>43175</v>
       </c>
     </row>
@@ -2518,43 +3011,44 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="450">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="451">
         <v>299620</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="452">
         <v>83</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="453">
         <v>50</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="454">
         <v>84</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" t="s" s="455">
         <v>52</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="456">
         <v>2</v>
       </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
+      <c r="H23" s="457">
+        <v>0</v>
+      </c>
+      <c r="I23" s="458">
         <v>43110</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="459">
         <v>43110</v>
       </c>
-      <c r="L23" s="1">
+      <c r="K23" s="460"/>
+      <c r="L23" s="461">
         <v>43133</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="462">
         <v>43133</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23" s="463">
         <v>43171</v>
       </c>
     </row>
@@ -2591,44 +3085,44 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="128">
+      <c r="A25" s="464">
         <v>23</v>
       </c>
-      <c r="B25" s="129">
+      <c r="B25" s="465">
         <v>301109</v>
       </c>
-      <c r="C25" t="s" s="130">
+      <c r="C25" s="466" t="s">
         <v>88</v>
       </c>
-      <c r="D25" t="s" s="131">
+      <c r="D25" s="467" t="s">
         <v>89</v>
       </c>
-      <c r="E25" t="s" s="132">
+      <c r="E25" s="468" t="s">
         <v>90</v>
       </c>
-      <c r="F25" t="s" s="133">
+      <c r="F25" s="469" t="s">
         <v>91</v>
       </c>
-      <c r="G25" s="134">
+      <c r="G25" s="470">
         <v>31</v>
       </c>
-      <c r="H25" s="135">
-        <v>0</v>
-      </c>
-      <c r="I25" s="136">
+      <c r="H25" s="471">
+        <v>0</v>
+      </c>
+      <c r="I25" s="472">
         <v>43117</v>
       </c>
-      <c r="J25" s="137">
+      <c r="J25" s="473">
         <v>43117</v>
       </c>
-      <c r="K25" s="138"/>
-      <c r="L25" s="139">
+      <c r="K25" s="474"/>
+      <c r="L25" s="475">
         <v>43117</v>
       </c>
-      <c r="M25" s="140">
+      <c r="M25" s="476">
         <v>43131</v>
       </c>
-      <c r="N25" s="141">
+      <c r="N25" s="477">
         <v>43165</v>
       </c>
     </row>
@@ -2671,44 +3165,44 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="142">
+      <c r="A27" s="478">
         <v>25</v>
       </c>
-      <c r="B27" s="143">
+      <c r="B27" s="479">
         <v>302661</v>
       </c>
-      <c r="C27" t="s" s="144">
+      <c r="C27" s="480" t="s">
         <v>96</v>
       </c>
-      <c r="D27" t="s" s="145">
+      <c r="D27" s="481" t="s">
         <v>97</v>
       </c>
-      <c r="E27" t="s" s="146">
+      <c r="E27" s="482" t="s">
         <v>98</v>
       </c>
-      <c r="F27" t="s" s="147">
+      <c r="F27" s="483" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="148">
+      <c r="G27" s="484">
         <v>2</v>
       </c>
-      <c r="H27" s="149">
-        <v>0</v>
-      </c>
-      <c r="I27" s="150">
+      <c r="H27" s="485">
+        <v>0</v>
+      </c>
+      <c r="I27" s="486">
         <v>43124</v>
       </c>
-      <c r="J27" s="151">
+      <c r="J27" s="487">
         <v>43124</v>
       </c>
-      <c r="K27" s="152"/>
-      <c r="L27" s="153">
+      <c r="K27" s="488"/>
+      <c r="L27" s="489">
         <v>43124</v>
       </c>
-      <c r="M27" s="154">
+      <c r="M27" s="490">
         <v>43124</v>
       </c>
-      <c r="N27" s="155">
+      <c r="N27" s="491">
         <v>43172</v>
       </c>
     </row>
@@ -2789,86 +3283,86 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="156">
+      <c r="A30" s="492">
         <v>28</v>
       </c>
-      <c r="B30" s="157">
+      <c r="B30" s="493">
         <v>305389</v>
       </c>
-      <c r="C30" t="s" s="158">
+      <c r="C30" s="494" t="s">
         <v>105</v>
       </c>
-      <c r="D30" t="s" s="159">
+      <c r="D30" s="495" t="s">
         <v>106</v>
       </c>
-      <c r="E30" t="s" s="160">
+      <c r="E30" s="496" t="s">
         <v>98</v>
       </c>
-      <c r="F30" t="s" s="161">
+      <c r="F30" s="497" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="162">
+      <c r="G30" s="498">
         <v>8</v>
       </c>
-      <c r="H30" s="163">
-        <v>0</v>
-      </c>
-      <c r="I30" s="164">
+      <c r="H30" s="499">
+        <v>0</v>
+      </c>
+      <c r="I30" s="500">
         <v>43136</v>
       </c>
-      <c r="J30" s="165">
+      <c r="J30" s="501">
         <v>43136</v>
       </c>
-      <c r="K30" s="166"/>
-      <c r="L30" s="167">
+      <c r="K30" s="502"/>
+      <c r="L30" s="503">
         <v>43139</v>
       </c>
-      <c r="M30" s="168">
+      <c r="M30" s="504">
         <v>43139</v>
       </c>
-      <c r="N30" s="169">
+      <c r="N30" s="505">
         <v>43179</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="170">
+      <c r="A31" s="506">
         <v>29</v>
       </c>
-      <c r="B31" s="171">
+      <c r="B31" s="507">
         <v>305982</v>
       </c>
-      <c r="C31" t="s" s="172">
+      <c r="C31" s="508" t="s">
         <v>107</v>
       </c>
-      <c r="D31" t="s" s="173">
+      <c r="D31" s="509" t="s">
         <v>108</v>
       </c>
-      <c r="E31" t="s" s="174">
+      <c r="E31" s="510" t="s">
         <v>109</v>
       </c>
-      <c r="F31" t="s" s="175">
+      <c r="F31" s="511" t="s">
         <v>110</v>
       </c>
-      <c r="G31" s="176">
+      <c r="G31" s="512">
         <v>1</v>
       </c>
-      <c r="H31" s="177">
-        <v>0</v>
-      </c>
-      <c r="I31" s="178">
+      <c r="H31" s="513">
+        <v>0</v>
+      </c>
+      <c r="I31" s="514">
         <v>43138</v>
       </c>
-      <c r="J31" s="179">
+      <c r="J31" s="515">
         <v>43138</v>
       </c>
-      <c r="K31" s="180"/>
-      <c r="L31" s="181">
+      <c r="K31" s="516"/>
+      <c r="L31" s="517">
         <v>43158</v>
       </c>
-      <c r="M31" s="182">
+      <c r="M31" s="518">
         <v>43159</v>
       </c>
-      <c r="N31" s="183">
+      <c r="N31" s="519">
         <v>43168</v>
       </c>
     </row>
@@ -2908,44 +3402,44 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="184">
+      <c r="A33" s="520">
         <v>31</v>
       </c>
-      <c r="B33" s="185">
+      <c r="B33" s="521">
         <v>306150</v>
       </c>
-      <c r="C33" t="s" s="186">
+      <c r="C33" s="522" t="s">
         <v>114</v>
       </c>
-      <c r="D33" t="s" s="187">
+      <c r="D33" s="523" t="s">
         <v>108</v>
       </c>
-      <c r="E33" t="s" s="188">
+      <c r="E33" s="524" t="s">
         <v>109</v>
       </c>
-      <c r="F33" t="s" s="189">
+      <c r="F33" s="525" t="s">
         <v>110</v>
       </c>
-      <c r="G33" s="190">
+      <c r="G33" s="526">
         <v>1</v>
       </c>
-      <c r="H33" s="191">
-        <v>0</v>
-      </c>
-      <c r="I33" s="192">
+      <c r="H33" s="527">
+        <v>0</v>
+      </c>
+      <c r="I33" s="528">
         <v>43138</v>
       </c>
-      <c r="J33" s="193">
+      <c r="J33" s="529">
         <v>43138</v>
       </c>
-      <c r="K33" s="194"/>
-      <c r="L33" s="195">
+      <c r="K33" s="530"/>
+      <c r="L33" s="531">
         <v>43146</v>
       </c>
-      <c r="M33" s="196">
+      <c r="M33" s="532">
         <v>43147</v>
       </c>
-      <c r="N33" s="197">
+      <c r="N33" s="533">
         <v>43171</v>
       </c>
     </row>
@@ -3245,44 +3739,44 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="198">
+      <c r="A42" s="534">
         <v>40</v>
       </c>
-      <c r="B42" s="199">
+      <c r="B42" s="535">
         <v>309205</v>
       </c>
-      <c r="C42" t="s" s="200">
+      <c r="C42" s="536" t="s">
         <v>139</v>
       </c>
-      <c r="D42" t="s" s="201">
+      <c r="D42" s="537" t="s">
         <v>140</v>
       </c>
-      <c r="E42" t="s" s="202">
+      <c r="E42" s="538" t="s">
         <v>141</v>
       </c>
-      <c r="F42" t="s" s="203">
+      <c r="F42" s="539" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="204">
+      <c r="G42" s="540">
         <v>3</v>
       </c>
-      <c r="H42" s="205">
-        <v>0</v>
-      </c>
-      <c r="I42" s="206">
+      <c r="H42" s="541">
+        <v>0</v>
+      </c>
+      <c r="I42" s="542">
         <v>43151</v>
       </c>
-      <c r="J42" s="207">
+      <c r="J42" s="543">
         <v>43151</v>
       </c>
-      <c r="K42" s="208"/>
-      <c r="L42" s="209">
+      <c r="K42" s="544"/>
+      <c r="L42" s="545">
         <v>43154</v>
       </c>
-      <c r="M42" s="210">
+      <c r="M42" s="546">
         <v>43154</v>
       </c>
-      <c r="N42" s="211">
+      <c r="N42" s="547">
         <v>43172</v>
       </c>
     </row>
@@ -3509,43 +4003,44 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="548">
         <v>47</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="549">
         <v>310071</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" t="s" s="550">
         <v>159</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" t="s" s="551">
         <v>160</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" t="s" s="552">
         <v>161</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" t="s" s="553">
         <v>162</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="554">
         <v>1</v>
       </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49" s="1">
+      <c r="H49" s="555">
+        <v>0</v>
+      </c>
+      <c r="I49" s="556">
         <v>43154</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49" s="557">
         <v>43154</v>
       </c>
-      <c r="L49" s="1">
+      <c r="K49" s="558"/>
+      <c r="L49" s="559">
         <v>43157</v>
       </c>
-      <c r="M49" s="1">
+      <c r="M49" s="560">
         <v>43157</v>
       </c>
-      <c r="N49" s="1">
+      <c r="N49" s="561">
         <v>43161</v>
       </c>
     </row>
@@ -3702,44 +4197,44 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="212">
+      <c r="A54" s="562">
         <v>52</v>
       </c>
-      <c r="B54" s="213">
+      <c r="B54" s="563">
         <v>310488</v>
       </c>
-      <c r="C54" t="s" s="214">
+      <c r="C54" s="564" t="s">
         <v>173</v>
       </c>
-      <c r="D54" t="s" s="215">
+      <c r="D54" s="565" t="s">
         <v>174</v>
       </c>
-      <c r="E54" t="s" s="216">
+      <c r="E54" s="566" t="s">
         <v>175</v>
       </c>
-      <c r="F54" t="s" s="217">
+      <c r="F54" s="567" t="s">
         <v>176</v>
       </c>
-      <c r="G54" s="218">
+      <c r="G54" s="568">
         <v>1</v>
       </c>
-      <c r="H54" s="219">
-        <v>0</v>
-      </c>
-      <c r="I54" s="220">
+      <c r="H54" s="569">
+        <v>0</v>
+      </c>
+      <c r="I54" s="570">
         <v>43158</v>
       </c>
-      <c r="J54" s="221">
+      <c r="J54" s="571">
         <v>43160</v>
       </c>
-      <c r="K54" s="222"/>
-      <c r="L54" s="223">
+      <c r="K54" s="572"/>
+      <c r="L54" s="573">
         <v>43160</v>
       </c>
-      <c r="M54" s="224">
+      <c r="M54" s="574">
         <v>43160</v>
       </c>
-      <c r="N54" s="225">
+      <c r="N54" s="575">
         <v>43167</v>
       </c>
     </row>
@@ -3782,43 +4277,44 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="576">
         <v>54</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="577">
         <v>310575</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" t="s" s="578">
         <v>180</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" t="s" s="579">
         <v>181</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" t="s" s="580">
         <v>182</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" t="s" s="581">
         <v>21</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="582">
         <v>1</v>
       </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56" s="1">
+      <c r="H56" s="583">
+        <v>0</v>
+      </c>
+      <c r="I56" s="584">
         <v>43158</v>
       </c>
-      <c r="J56" s="1">
+      <c r="J56" s="585">
         <v>43158</v>
       </c>
-      <c r="L56" s="1">
+      <c r="K56" s="586"/>
+      <c r="L56" s="587">
         <v>43158</v>
       </c>
-      <c r="M56" s="1">
+      <c r="M56" s="588">
         <v>43158</v>
       </c>
-      <c r="N56" s="1">
+      <c r="N56" s="589">
         <v>43167</v>
       </c>
     </row>
@@ -3969,84 +4465,86 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="590">
         <v>59</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="591">
         <v>311307</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" t="s" s="592">
         <v>190</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" t="s" s="593">
         <v>191</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" t="s" s="594">
         <v>192</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" t="s" s="595">
         <v>193</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="596">
         <v>5</v>
       </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61" s="1">
+      <c r="H61" s="597">
+        <v>0</v>
+      </c>
+      <c r="I61" s="598">
         <v>43160</v>
       </c>
-      <c r="J61" s="1">
+      <c r="J61" s="599">
         <v>43160</v>
       </c>
-      <c r="L61" s="1">
+      <c r="K61" s="600"/>
+      <c r="L61" s="601">
         <v>43167</v>
       </c>
-      <c r="M61" s="1">
+      <c r="M61" s="602">
         <v>43167</v>
       </c>
-      <c r="N61" s="1">
+      <c r="N61" s="603">
         <v>43189</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="604">
         <v>60</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="605">
         <v>311389</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" t="s" s="606">
         <v>194</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" t="s" s="607">
         <v>33</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" t="s" s="608">
         <v>195</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" t="s" s="609">
         <v>196</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="610">
         <v>1</v>
       </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62" s="1">
+      <c r="H62" s="611">
+        <v>0</v>
+      </c>
+      <c r="I62" s="612">
         <v>43161</v>
       </c>
-      <c r="J62" s="1">
+      <c r="J62" s="613">
         <v>43161</v>
       </c>
-      <c r="L62" s="1">
+      <c r="K62" s="614"/>
+      <c r="L62" s="615">
         <v>43161</v>
       </c>
-      <c r="M62" s="1">
+      <c r="M62" s="616">
         <v>43161</v>
       </c>
-      <c r="N62" s="1">
+      <c r="N62" s="617">
         <v>43161</v>
       </c>
     </row>
@@ -4232,44 +4730,44 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="226">
+      <c r="A68" s="618">
         <v>66</v>
       </c>
-      <c r="B68" s="227">
+      <c r="B68" s="619">
         <v>311668</v>
       </c>
-      <c r="C68" t="s" s="228">
+      <c r="C68" s="620" t="s">
         <v>208</v>
       </c>
-      <c r="D68" t="s" s="229">
+      <c r="D68" s="621" t="s">
         <v>209</v>
       </c>
-      <c r="E68" t="s" s="230">
+      <c r="E68" s="622" t="s">
         <v>210</v>
       </c>
-      <c r="F68" t="s" s="231">
+      <c r="F68" s="623" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="232">
+      <c r="G68" s="624">
         <v>1</v>
       </c>
-      <c r="H68" s="233">
-        <v>0</v>
-      </c>
-      <c r="I68" s="234">
+      <c r="H68" s="625">
+        <v>0</v>
+      </c>
+      <c r="I68" s="626">
         <v>43164</v>
       </c>
-      <c r="J68" s="235">
+      <c r="J68" s="627">
         <v>43164</v>
       </c>
-      <c r="K68" s="236"/>
-      <c r="L68" s="237">
+      <c r="K68" s="628"/>
+      <c r="L68" s="629">
         <v>43167</v>
       </c>
-      <c r="M68" s="238">
+      <c r="M68" s="630">
         <v>43167</v>
       </c>
-      <c r="N68" s="239">
+      <c r="N68" s="631">
         <v>43167</v>
       </c>
     </row>
@@ -4496,37 +4994,40 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="632">
         <v>73</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="633">
         <v>312007</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" t="s" s="634">
         <v>225</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" t="s" s="635">
         <v>226</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" t="s" s="636">
         <v>227</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" t="s" s="637">
         <v>58</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="638">
         <v>2</v>
       </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75" s="1">
+      <c r="H75" s="639">
+        <v>0</v>
+      </c>
+      <c r="I75" s="640">
         <v>43165</v>
       </c>
-      <c r="M75" s="1">
+      <c r="J75" s="641"/>
+      <c r="K75" s="642"/>
+      <c r="L75" s="643"/>
+      <c r="M75" s="644">
         <v>43165</v>
       </c>
-      <c r="N75" s="1">
+      <c r="N75" s="645">
         <v>43165</v>
       </c>
     </row>
@@ -4569,72 +5070,78 @@
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="646">
         <v>75</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="647">
         <v>312185</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" t="s" s="648">
         <v>232</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" t="s" s="649">
         <v>233</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" t="s" s="650">
         <v>234</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" t="s" s="651">
         <v>235</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="652">
         <v>4</v>
       </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77" s="1">
+      <c r="H77" s="653">
+        <v>0</v>
+      </c>
+      <c r="I77" s="654">
         <v>43165</v>
       </c>
-      <c r="M77" s="1">
+      <c r="J77" s="655"/>
+      <c r="K77" s="656"/>
+      <c r="L77" s="657"/>
+      <c r="M77" s="658">
         <v>43165</v>
       </c>
-      <c r="N77" s="1">
+      <c r="N77" s="659">
         <v>43166</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="660">
         <v>76</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="661">
         <v>312186</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" t="s" s="662">
         <v>236</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" t="s" s="663">
         <v>233</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" t="s" s="664">
         <v>234</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" t="s" s="665">
         <v>235</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="666">
         <v>4</v>
       </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78" s="1">
+      <c r="H78" s="667">
+        <v>0</v>
+      </c>
+      <c r="I78" s="668">
         <v>43165</v>
       </c>
-      <c r="M78" s="1">
+      <c r="J78" s="669"/>
+      <c r="K78" s="670"/>
+      <c r="L78" s="671"/>
+      <c r="M78" s="672">
         <v>43165</v>
       </c>
-      <c r="N78" s="1">
+      <c r="N78" s="673">
         <v>43166</v>
       </c>
     </row>
@@ -4858,44 +5365,44 @@
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="240">
+      <c r="A85" s="674">
         <v>83</v>
       </c>
-      <c r="B85" s="241">
+      <c r="B85" s="675">
         <v>313376</v>
       </c>
-      <c r="C85" t="s" s="242">
+      <c r="C85" s="676" t="s">
         <v>254</v>
       </c>
-      <c r="D85" t="s" s="243">
+      <c r="D85" s="677" t="s">
         <v>255</v>
       </c>
-      <c r="E85" t="s" s="244">
+      <c r="E85" s="678" t="s">
         <v>84</v>
       </c>
-      <c r="F85" t="s" s="245">
+      <c r="F85" s="679" t="s">
         <v>176</v>
       </c>
-      <c r="G85" s="246">
+      <c r="G85" s="680">
         <v>1</v>
       </c>
-      <c r="H85" s="247">
-        <v>0</v>
-      </c>
-      <c r="I85" s="248">
+      <c r="H85" s="681">
+        <v>0</v>
+      </c>
+      <c r="I85" s="682">
         <v>43171</v>
       </c>
-      <c r="J85" s="249">
+      <c r="J85" s="683">
         <v>43171</v>
       </c>
-      <c r="K85" s="250"/>
-      <c r="L85" s="251">
+      <c r="K85" s="684"/>
+      <c r="L85" s="685">
         <v>43171</v>
       </c>
-      <c r="M85" s="252">
+      <c r="M85" s="686">
         <v>43171</v>
       </c>
-      <c r="N85" s="253">
+      <c r="N85" s="687">
         <v>43172</v>
       </c>
     </row>
@@ -5052,44 +5559,44 @@
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="254">
+      <c r="A90" s="688">
         <v>88</v>
       </c>
-      <c r="B90" s="255">
+      <c r="B90" s="689">
         <v>313688</v>
       </c>
-      <c r="C90" t="s" s="256">
+      <c r="C90" s="690" t="s">
         <v>262</v>
       </c>
-      <c r="D90" t="s" s="257">
+      <c r="D90" s="691" t="s">
         <v>263</v>
       </c>
-      <c r="E90" t="s" s="258">
+      <c r="E90" s="692" t="s">
         <v>264</v>
       </c>
-      <c r="F90" t="s" s="259">
+      <c r="F90" s="693" t="s">
         <v>265</v>
       </c>
-      <c r="G90" s="260">
+      <c r="G90" s="694">
         <v>6</v>
       </c>
-      <c r="H90" s="261">
-        <v>0</v>
-      </c>
-      <c r="I90" s="262">
+      <c r="H90" s="695">
+        <v>0</v>
+      </c>
+      <c r="I90" s="696">
         <v>43172</v>
       </c>
-      <c r="J90" s="263">
+      <c r="J90" s="697">
         <v>43172</v>
       </c>
-      <c r="K90" s="264"/>
-      <c r="L90" s="265">
+      <c r="K90" s="698"/>
+      <c r="L90" s="699">
         <v>43172</v>
       </c>
-      <c r="M90" s="266">
+      <c r="M90" s="700">
         <v>43174</v>
       </c>
-      <c r="N90" s="267">
+      <c r="N90" s="701">
         <v>43179</v>
       </c>
     </row>
@@ -5570,86 +6077,86 @@
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="268">
+      <c r="A104" s="702">
         <v>102</v>
       </c>
-      <c r="B104" s="269">
+      <c r="B104" s="703">
         <v>315389</v>
       </c>
-      <c r="C104" t="s" s="270">
+      <c r="C104" s="704" t="s">
         <v>293</v>
       </c>
-      <c r="D104" t="s" s="271">
+      <c r="D104" s="705" t="s">
         <v>294</v>
       </c>
-      <c r="E104" t="s" s="272">
+      <c r="E104" s="706" t="s">
         <v>295</v>
       </c>
-      <c r="F104" t="s" s="273">
+      <c r="F104" s="707" t="s">
         <v>296</v>
       </c>
-      <c r="G104" s="274">
+      <c r="G104" s="708">
         <v>1</v>
       </c>
-      <c r="H104" s="275">
-        <v>0</v>
-      </c>
-      <c r="I104" s="276">
+      <c r="H104" s="709">
+        <v>0</v>
+      </c>
+      <c r="I104" s="710">
         <v>43178</v>
       </c>
-      <c r="J104" s="277">
+      <c r="J104" s="711">
         <v>43178</v>
       </c>
-      <c r="K104" s="278"/>
-      <c r="L104" s="279">
+      <c r="K104" s="712"/>
+      <c r="L104" s="713">
         <v>43179</v>
       </c>
-      <c r="M104" s="280">
+      <c r="M104" s="714">
         <v>43179</v>
       </c>
-      <c r="N104" s="281">
+      <c r="N104" s="715">
         <v>43181</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="282">
+      <c r="A105" s="716">
         <v>103</v>
       </c>
-      <c r="B105" s="283">
+      <c r="B105" s="717">
         <v>315428</v>
       </c>
-      <c r="C105" t="s" s="284">
+      <c r="C105" s="718" t="s">
         <v>297</v>
       </c>
-      <c r="D105" t="s" s="285">
+      <c r="D105" s="719" t="s">
         <v>255</v>
       </c>
-      <c r="E105" t="s" s="286">
+      <c r="E105" s="720" t="s">
         <v>84</v>
       </c>
-      <c r="F105" t="s" s="287">
+      <c r="F105" s="721" t="s">
         <v>265</v>
       </c>
-      <c r="G105" s="288">
+      <c r="G105" s="722">
         <v>1</v>
       </c>
-      <c r="H105" s="289">
-        <v>0</v>
-      </c>
-      <c r="I105" s="290">
+      <c r="H105" s="723">
+        <v>0</v>
+      </c>
+      <c r="I105" s="724">
         <v>43178</v>
       </c>
-      <c r="J105" s="291">
+      <c r="J105" s="725">
         <v>43178</v>
       </c>
-      <c r="K105" s="292"/>
-      <c r="L105" s="293">
+      <c r="K105" s="726"/>
+      <c r="L105" s="727">
         <v>43179</v>
       </c>
-      <c r="M105" s="294">
+      <c r="M105" s="728">
         <v>43179</v>
       </c>
-      <c r="N105" s="295">
+      <c r="N105" s="729">
         <v>43181</v>
       </c>
     </row>
@@ -5762,119 +6269,124 @@
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="A109" s="730">
         <v>107</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="731">
         <v>315871</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" t="s" s="732">
         <v>305</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" t="s" s="733">
         <v>306</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" t="s" s="734">
         <v>307</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" t="s" s="735">
         <v>308</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="736">
         <v>1</v>
       </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109" s="1">
+      <c r="H109" s="737">
+        <v>0</v>
+      </c>
+      <c r="I109" s="738">
         <v>43180</v>
       </c>
-      <c r="J109" s="1">
+      <c r="J109" s="739">
         <v>43180</v>
       </c>
-      <c r="L109" s="1">
+      <c r="K109" s="740"/>
+      <c r="L109" s="741">
         <v>43180</v>
       </c>
-      <c r="M109" s="1">
+      <c r="M109" s="742">
         <v>43182</v>
       </c>
-      <c r="N109" s="1">
+      <c r="N109" s="743">
         <v>43185</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="A110" s="744">
         <v>108</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="745">
         <v>315992</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" t="s" s="746">
         <v>309</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" t="s" s="747">
         <v>294</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" t="s" s="748">
         <v>310</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" t="s" s="749">
         <v>21</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="750">
         <v>1</v>
       </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110" s="1">
+      <c r="H110" s="751">
+        <v>0</v>
+      </c>
+      <c r="I110" s="752">
         <v>43180</v>
       </c>
-      <c r="J110" s="1">
+      <c r="J110" s="753">
         <v>43180</v>
       </c>
-      <c r="L110" s="1">
+      <c r="K110" s="754"/>
+      <c r="L110" s="755">
         <v>43180</v>
       </c>
-      <c r="M110" s="1">
+      <c r="M110" s="756">
         <v>43180</v>
       </c>
-      <c r="N110" s="1">
+      <c r="N110" s="757">
         <v>43187</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="A111" s="758">
         <v>109</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="759">
         <v>316014</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" t="s" s="760">
         <v>311</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" t="s" s="761">
         <v>245</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" t="s" s="762">
         <v>312</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" t="s" s="763">
         <v>313</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="764">
         <v>3</v>
       </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111" s="1">
+      <c r="H111" s="765">
+        <v>0</v>
+      </c>
+      <c r="I111" s="766">
         <v>43180</v>
       </c>
-      <c r="M111" s="1">
+      <c r="J111" s="767"/>
+      <c r="K111" s="768"/>
+      <c r="L111" s="769"/>
+      <c r="M111" s="770">
         <v>43180</v>
       </c>
-      <c r="N111" s="1">
+      <c r="N111" s="771">
         <v>43181</v>
       </c>
     </row>
